--- a/IEEE_Screening_Results.xlsx
+++ b/IEEE_Screening_Results.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="J3" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K3" s="8" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K4" s="7" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="J5" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K5" s="8" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K7" s="8" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K8" s="7" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K9" s="8" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="J11" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K11" s="8" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K12" s="7" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J13" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K13" s="8" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="J14" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K14" s="7" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="J15" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K15" s="8" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K16" s="7" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="J17" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K17" s="8" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="J18" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K18" s="7" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="J19" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K19" s="8" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="J20" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K20" s="7" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K21" s="8" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="J22" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K22" s="7" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="J23" s="8" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K23" s="8" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="J24" s="7" t="inlineStr">
         <is>
-          <t>No full text available — passed through</t>
+          <t>No PMC full text — passed through</t>
         </is>
       </c>
       <c r="K24" s="7" t="inlineStr">
